--- a/biology/Botanique/Sporisorium/Sporisorium.xlsx
+++ b/biology/Botanique/Sporisorium/Sporisorium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sporisorium est un genre de champignons basidiomycètes de la famille des Ustilaginaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (3 octobre 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (3 octobre 2014) :
 Anthracocystis Bref. 1912,
 Lindquistia Subram. &amp; Chandrash. 1977.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (3 octobre 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (3 octobre 2014) :
 Sporisorium aegyptiacum
 Sporisorium africanum
 Sporisorium agropyri
@@ -778,7 +794,7 @@
 Sporisorium wynaadense
 Sporisorium zilligii
 Sporisorium zundelianum
-Selon Index Fungorum                                      (3 octobre 2014)[3] :
+Selon Index Fungorum                                      (3 octobre 2014) :
 Sporisorium africanum (Syd. &amp; P. Syd.) Vánky 2004
 Sporisorium agropyri Bag &amp; D.K. Agarwal 2001
 Sporisorium algeriense (Pat.) Vánky 1997
@@ -927,9 +943,11 @@
           <t>Liste des espèces, formes et non-classés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (3 octobre 2014)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (3 octobre 2014) :
 Sporisorium absconditum
 Sporisorium aegypticum
 Sporisorium andrewmitchellii
